--- a/03-lab/output/penalty_method_custom.xlsx
+++ b/03-lab/output/penalty_method_custom.xlsx
@@ -1,23 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <workbookPr/>
+  <fileVersion appName="Calc"/>
+  <workbookPr date1904="false" showObjects="all" backupFile="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr fullCalcOnLoad="true" refMode="A1" iterate="false" iterateCount="100" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <fonts count="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -29,7 +56,7 @@
     </fill>
   </fills>
   <borders count="2">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -38,135 +65,283 @@
     </border>
     <border/>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="FFFFFF"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18A303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369A3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A33E03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8E03A3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="C99C00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="C9211E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000EE"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551A8B"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A:F"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="true"/>
-    <col min="2" max="2" width="12.7109375" customWidth="true"/>
-    <col min="3" max="3" width="12.7109375" customWidth="true"/>
-    <col min="4" max="4" width="12.7109375" customWidth="true"/>
-    <col min="5" max="5" width="6.140625" customWidth="true"/>
-    <col min="6" max="6" width="7.140625" customWidth="true"/>
+    <col min="1" max="1" width="8.140625" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="2" max="2" width="8.140625" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="3" max="3" width="8.140625" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="4" max="4" width="8.140625" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="5" max="5" width="8.140625" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="6" max="6" width="8.140625" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0">
         <v>0.5</v>
       </c>
       <c r="B1" s="0">
-        <v>0.41388497487333781</v>
+        <v>0.77238756354817417</v>
       </c>
       <c r="C1" s="0">
-        <v>0.41328491459594513</v>
+        <v>0.074011824515928609</v>
       </c>
       <c r="D1" s="0">
-        <v>0.41329978948481316</v>
+        <v>0.45916143852503072</v>
       </c>
       <c r="E1" s="0">
-        <v>37169</v>
+        <v>2</v>
       </c>
       <c r="F1" s="0">
-        <v>111504</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0">
-        <v>0.25</v>
+        <v>0.40000000000000002</v>
       </c>
       <c r="B2" s="0">
-        <v>0.41124596269896163</v>
+        <v>0.4978574159096496</v>
       </c>
       <c r="C2" s="0">
-        <v>0.41066129037581656</v>
+        <v>0.63262881240576185</v>
       </c>
       <c r="D2" s="0">
-        <v>0.41067578262221033</v>
+        <v>0.17296302321399717</v>
       </c>
       <c r="E2" s="0">
-        <v>143</v>
+        <v>16</v>
       </c>
       <c r="F2" s="0">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0">
-        <v>0.125</v>
+        <v>0.32000000000000006</v>
       </c>
       <c r="B3" s="0">
-        <v>0.40993284407175873</v>
+        <v>0.40609094864873185</v>
       </c>
       <c r="C3" s="0">
-        <v>0.40935533296883392</v>
+        <v>0.51392164844506594</v>
       </c>
       <c r="D3" s="0">
-        <v>0.40936964715829244</v>
+        <v>0.32459424536093601</v>
       </c>
       <c r="E3" s="0">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="F3" s="0">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0">
-        <v>0.0625</v>
+        <v>0.25600000000000006</v>
       </c>
       <c r="B4" s="0">
-        <v>0.40927800401454112</v>
+        <v>0.40002726478860301</v>
       </c>
       <c r="C4" s="0">
-        <v>0.40870379892671549</v>
+        <v>0.46880901600693886</v>
       </c>
       <c r="D4" s="0">
-        <v>0.40871803091737807</v>
+        <v>0.36682150967484928</v>
       </c>
       <c r="E4" s="0">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="F4" s="0">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0">
-        <v>0.03125</v>
+        <v>0.20480000000000007</v>
       </c>
       <c r="B5" s="0">
-        <v>0.40895112935953493</v>
+        <v>0.40195424146565051</v>
       </c>
       <c r="C5" s="0">
-        <v>0.40837833471422785</v>
+        <v>0.44491344149331408</v>
       </c>
       <c r="D5" s="0">
-        <v>0.40839253163508332</v>
+        <v>0.38529205117701659</v>
       </c>
       <c r="E5" s="0">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="F5" s="0">
-        <v>42</v>
+        <v>2377</v>
       </c>
     </row>
   </sheetData>
+  <printOptions horizontalCentered="false" verticalCentered="false" headings="false" gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.74791666666667" right="0.74791666666667" top="0.98402777777778" bottom="0.98402777777778" header="0.51181102362205" footer="0.51181102362205"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/03-lab/output/penalty_method_custom.xlsx
+++ b/03-lab/output/penalty_method_custom.xlsx
@@ -219,7 +219,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A:F"/>
@@ -240,13 +240,13 @@
         <v>0.5</v>
       </c>
       <c r="B1" s="0">
-        <v>0.77238756354817417</v>
+        <v>0.77791005083853937</v>
       </c>
       <c r="C1" s="0">
-        <v>0.074011824515928609</v>
+        <v>0.07920945961274288</v>
       </c>
       <c r="D1" s="0">
-        <v>0.45916143852503072</v>
+        <v>0.46732915082002457</v>
       </c>
       <c r="E1" s="0">
         <v>2</v>
@@ -257,82 +257,282 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0">
-        <v>0.40000000000000002</v>
+        <v>0.45000000000000001</v>
       </c>
       <c r="B2" s="0">
-        <v>0.4978574159096496</v>
+        <v>0.75692168828537953</v>
       </c>
       <c r="C2" s="0">
-        <v>0.63262881240576185</v>
+        <v>0.15332700747474587</v>
       </c>
       <c r="D2" s="0">
-        <v>0.17296302321399717</v>
+        <v>0.43923391608215356</v>
       </c>
       <c r="E2" s="0">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F2" s="0">
-        <v>211</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0">
-        <v>0.32000000000000006</v>
+        <v>0.40500000000000003</v>
       </c>
       <c r="B3" s="0">
-        <v>0.40609094864873185</v>
+        <v>0.6785314908585599</v>
       </c>
       <c r="C3" s="0">
-        <v>0.51392164844506594</v>
+        <v>0.252616262936189</v>
       </c>
       <c r="D3" s="0">
-        <v>0.32459424536093601</v>
+        <v>0.36240957950199659</v>
       </c>
       <c r="E3" s="0">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="F3" s="0">
-        <v>1882</v>
+        <v>741</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0">
-        <v>0.25600000000000006</v>
+        <v>0.36450000000000005</v>
       </c>
       <c r="B4" s="0">
-        <v>0.40002726478860301</v>
+        <v>0.29207134908236349</v>
       </c>
       <c r="C4" s="0">
-        <v>0.46880901600693886</v>
+        <v>0.75197411304742912</v>
       </c>
       <c r="D4" s="0">
-        <v>0.36682150967484928</v>
+        <v>0.27932387074327936</v>
       </c>
       <c r="E4" s="0">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="F4" s="0">
-        <v>2377</v>
+        <v>936</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0">
-        <v>0.20480000000000007</v>
+        <v>0.32805000000000006</v>
       </c>
       <c r="B5" s="0">
-        <v>0.40195424146565051</v>
+        <v>0.30777389785172388</v>
       </c>
       <c r="C5" s="0">
-        <v>0.44491344149331408</v>
+        <v>0.67657105267627216</v>
       </c>
       <c r="D5" s="0">
-        <v>0.38529205117701659</v>
+        <v>0.3042327704225451</v>
       </c>
       <c r="E5" s="0">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="F5" s="0">
-        <v>2377</v>
+        <v>936</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.16384000000000007</v>
+      </c>
+      <c r="B6" s="0">
+        <v>0.74960809906780101</v>
+      </c>
+      <c r="C6" s="0">
+        <v>0.092805996904456942</v>
+      </c>
+      <c r="D6" s="0">
+        <v>0.46639468831168157</v>
+      </c>
+      <c r="E6" s="0">
+        <v>2</v>
+      </c>
+      <c r="F6" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.13107200000000005</v>
+      </c>
+      <c r="B7" s="0">
+        <v>0.74957205564176188</v>
+      </c>
+      <c r="C7" s="0">
+        <v>0.092812124048834793</v>
+      </c>
+      <c r="D7" s="0">
+        <v>0.46637645178801518</v>
+      </c>
+      <c r="E7" s="0">
+        <v>2</v>
+      </c>
+      <c r="F7" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.10485760000000005</v>
+      </c>
+      <c r="B8" s="0">
+        <v>0.74953599231578816</v>
+      </c>
+      <c r="C8" s="0">
+        <v>0.092818007637171615</v>
+      </c>
+      <c r="D8" s="0">
+        <v>0.46635817444788324</v>
+      </c>
+      <c r="E8" s="0">
+        <v>2</v>
+      </c>
+      <c r="F8" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.083886080000000043</v>
+      </c>
+      <c r="B9" s="0">
+        <v>0.74949991395798565</v>
+      </c>
+      <c r="C9" s="0">
+        <v>0.092823697917575818</v>
+      </c>
+      <c r="D9" s="0">
+        <v>0.46633986559588492</v>
+      </c>
+      <c r="E9" s="0">
+        <v>2</v>
+      </c>
+      <c r="F9" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.067108864000000032</v>
+      </c>
+      <c r="B10" s="0">
+        <v>0.74946382410008827</v>
+      </c>
+      <c r="C10" s="0">
+        <v>0.09282923511649939</v>
+      </c>
+      <c r="D10" s="0">
+        <v>0.46632153248814706</v>
+      </c>
+      <c r="E10" s="0">
+        <v>2</v>
+      </c>
+      <c r="F10" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.05368709120000003</v>
+      </c>
+      <c r="B11" s="0">
+        <v>0.74942772533666602</v>
+      </c>
+      <c r="C11" s="0">
+        <v>0.092834651427967485</v>
+      </c>
+      <c r="D11" s="0">
+        <v>0.46630318080964706</v>
+      </c>
+      <c r="E11" s="0">
+        <v>2</v>
+      </c>
+      <c r="F11" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.042949672960000025</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.74939161959677103</v>
+      </c>
+      <c r="C12" s="0">
+        <v>0.092839972612928298</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0.4662848150319191</v>
+      </c>
+      <c r="E12" s="0">
+        <v>2</v>
+      </c>
+      <c r="F12" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.03435973836800002</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0.7493555083307335</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0.092845219282561633</v>
+      </c>
+      <c r="D13" s="0">
+        <v>0.46626643868360862</v>
+      </c>
+      <c r="E13" s="0">
+        <v>2</v>
+      </c>
+      <c r="F13" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.027487790694400018</v>
+      </c>
+      <c r="B14" s="0">
+        <v>0.7493193926401025</v>
+      </c>
+      <c r="C14" s="0">
+        <v>0.092850407926734504</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0.46624805455686325</v>
+      </c>
+      <c r="E14" s="0">
+        <v>2</v>
+      </c>
+      <c r="F14" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.021990232555520017</v>
+      </c>
+      <c r="B15" s="0">
+        <v>0.74928327336915623</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0.092855551737601058</v>
+      </c>
+      <c r="D15" s="0">
+        <v>0.46622966486599088</v>
+      </c>
+      <c r="E15" s="0">
+        <v>2</v>
+      </c>
+      <c r="F15" s="0">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/03-lab/output/penalty_method_custom.xlsx
+++ b/03-lab/output/penalty_method_custom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">r</t>
   </si>
@@ -31,21 +31,37 @@
     <t xml:space="preserve">f(X_min)</t>
   </si>
   <si>
-    <t xml:space="preserve">B(X_min, r)</t>
+    <t xml:space="preserve">B(X_min)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b(X_min)</t>
   </si>
   <si>
     <t xml:space="preserve">Iteracijų skaičius</t>
   </si>
   <si>
-    <t xml:space="preserve">Funkcijų iškvietimų skaičius</t>
+    <t xml:space="preserve">Funkcijų skaičiavimų kiekis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="14">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0.00000000000000000000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="General"/>
+    <numFmt numFmtId="168" formatCode="0.000000"/>
+    <numFmt numFmtId="169" formatCode="0"/>
+    <numFmt numFmtId="170" formatCode="0.00"/>
+    <numFmt numFmtId="171" formatCode="0.000"/>
+    <numFmt numFmtId="172" formatCode="0.0000"/>
+    <numFmt numFmtId="173" formatCode="0.00000"/>
+    <numFmt numFmtId="174" formatCode="0.0000000"/>
+    <numFmt numFmtId="175" formatCode="0.00000000"/>
+    <numFmt numFmtId="176" formatCode="0.000000000"/>
+    <numFmt numFmtId="177" formatCode="0.0000000000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -70,20 +86,33 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -112,16 +141,92 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -248,284 +353,933 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I100"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+      <selection pane="topLeft" activeCell="E32" activeCellId="0" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="34.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="27.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="8.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="29.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="27.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="2" width="8.15"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="n">
+      <c r="A1" s="3" t="n">
         <v>0.5</v>
       </c>
-      <c r="B1" s="1" t="n">
+      <c r="B1" s="3" t="n">
         <v>0.603768687145578</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="C1" s="3" t="n">
         <v>0.316823259440848</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="D1" s="3" t="n">
         <v>0.348761750612051</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="E1" s="3" t="n">
         <v>-0.0667139249898101</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="F1" s="3" t="n">
         <v>-0.0654927128450279</v>
       </c>
-      <c r="G1" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="H1" s="1" t="n">
+      <c r="G1" s="3" t="n">
+        <v>0.00122121214478213</v>
+      </c>
+      <c r="H1" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="I1" s="3" t="n">
         <v>936</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="3" t="n">
         <v>0.35</v>
       </c>
-      <c r="B2" s="1" t="n">
-        <v>0.540832287711578</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>0.348369472001487</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>0.36004854082528</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>-0.0678365506147246</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <v>-0.0669981096286217</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="H2" s="1" t="n">
-        <v>936</v>
+      <c r="B2" s="3" t="n">
+        <v>0.452968186438318</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>0.391323230175953</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>0.39287320360456</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>-0.0696395151910515</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>-0.0687227385977826</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>0.000916776593268894</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>1131</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="3" t="n">
         <v>0.245</v>
       </c>
-      <c r="B3" s="1" t="n">
-        <v>0.506130442325548</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>0.363651734013584</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>0.370022190104365</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>-0.0681045130102217</v>
-      </c>
-      <c r="F3" s="1" t="n">
-        <v>-0.0675373574392711</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="H3" s="1" t="n">
-        <v>936</v>
+      <c r="B3" s="3" t="n">
+        <v>0.411377702382853</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>0.4105178179796</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>0.410528628911539</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>-0.0693292031947129</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>-0.0686833577328111</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>0.000645845461901817</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>1326</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="3" t="n">
         <v>0.1715</v>
       </c>
-      <c r="B4" s="1" t="n">
-        <v>0.424770778817591</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>0.402720166394224</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>0.402767955445808</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <v>-0.0688990003524726</v>
-      </c>
-      <c r="F4" s="1" t="n">
-        <v>-0.0684575385264685</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="H4" s="1" t="n">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+      <c r="B4" s="3" t="n">
+        <v>0.410272753998622</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>0.40991919112814</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>0.409923618861347</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>-0.0689404112602934</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>-0.0684899479465036</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>0.000450463313789713</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="5" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="n">
         <v>0.12005</v>
       </c>
-      <c r="B5" s="1" t="n">
-        <v>0.424080768566559</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>0.402286902919678</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>0.402334070708165</v>
-      </c>
-      <c r="E5" s="1" t="n">
-        <v>-0.0686390530451057</v>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>-0.0683233801041163</v>
-      </c>
-      <c r="G5" s="1" t="n">
+      <c r="B5" s="4" t="n">
+        <v>0.409560376960077</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>0.409470180837009</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0.409471307437244</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>-0.0686694690603609</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>-0.0683549709889964</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>0.000314498071364493</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="n">
+        <v>0.084035</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>0.40917968925537</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>0.409096704151561</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>0.409097740645743</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>-0.0684805326763149</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>-0.0682606923318904</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>0.000219840344424517</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="n">
+        <v>0.0588245</v>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>0.408913451191483</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>0.408835226036459</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>0.408836203055664</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>-0.068348510025985</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>-0.0681948002853636</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>0.000153709740621317</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="I7" s="3" t="n">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="n">
+        <v>0.04117715</v>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>0.408727040328892</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>0.40865198523014</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>0.40865292264141</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>-0.0682561192966958</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>-0.0681487262598652</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>0.000107393036830603</v>
+      </c>
+      <c r="H8" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="I8" s="3" t="n">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="n">
+        <v>0.028824005</v>
+      </c>
+      <c r="B9" s="6" t="n">
+        <v>0.408596871788576</v>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.408523901306666</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.408524812672575</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>-0.06819161051968</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>-0.0681164991188226</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>7.51114008573716E-005</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="I9" s="3" t="n">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="n">
+        <v>0.0201768035</v>
+      </c>
+      <c r="B10" s="6" t="n">
+        <v>0.408505626291365</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>0.408434647437444</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>0.408435533920303</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>-0.0681465912906511</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>-0.0680939522162714</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <v>5.26390743796428E-005</v>
+      </c>
+      <c r="H10" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="I10" s="3" t="n">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="1" t="n">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+      <c r="G14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8" t="n">
         <v>0.5</v>
       </c>
-      <c r="B9" s="2" t="str">
-        <f aca="false">"⟨" &amp; TRUNC(B1,6) &amp; ", " &amp; TRUNC(C1, 6)  &amp; ", " &amp; TRUNC(D1, 6)&amp; "⟩"</f>
-        <v>⟨0.603768, 0.316823, 0.348761⟩</v>
-      </c>
-      <c r="C9" s="1" t="n">
+      <c r="B15" s="9" t="str">
+        <f aca="false"> "&lt;" &amp; TRUNC(B1, 6) &amp;  ", " &amp; TRUNC(C1, 6) &amp;  ", " &amp; TRUNC(D1, 6) &amp; "&gt;"</f>
+        <v>&lt;0.603768, 0.316823, 0.348761&gt;</v>
+      </c>
+      <c r="C15" s="10" t="n">
         <f aca="false">TRUNC(E1, 6)</f>
         <v>-0.066713</v>
       </c>
-      <c r="D9" s="1" t="n">
+      <c r="D15" s="10" t="n">
         <f aca="false">TRUNC(F1, 6)</f>
         <v>-0.065492</v>
       </c>
-      <c r="E9" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="F9" s="1" t="n">
+      <c r="E15" s="10" t="n">
+        <f aca="false">TRUNC(G1, 6)</f>
+        <v>0.001221</v>
+      </c>
+      <c r="F15" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="G15" s="11" t="n">
         <v>936</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="B10" s="2" t="str">
-        <f aca="false">"⟨" &amp; TRUNC(B2,6) &amp; ", " &amp; TRUNC(C2, 6)  &amp; ", " &amp; TRUNC(D2, 6)&amp; "⟩"</f>
-        <v>⟨0.540832, 0.348369, 0.360048⟩</v>
-      </c>
-      <c r="C10" s="1" t="n">
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="12" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="B16" s="9" t="str">
+        <f aca="false"> "&lt;" &amp; TRUNC(B2, 6) &amp;  ", " &amp; TRUNC(C2, 6) &amp;  ", " &amp; TRUNC(D2, 6) &amp; "&gt;"</f>
+        <v>&lt;0.452968, 0.391323, 0.392873&gt;</v>
+      </c>
+      <c r="C16" s="10" t="n">
         <f aca="false">TRUNC(E2, 6)</f>
-        <v>-0.067836</v>
-      </c>
-      <c r="D10" s="1" t="n">
+        <v>-0.069639</v>
+      </c>
+      <c r="D16" s="10" t="n">
         <f aca="false">TRUNC(F2, 6)</f>
-        <v>-0.066998</v>
-      </c>
-      <c r="E10" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="F10" s="1" t="n">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="B11" s="2" t="str">
-        <f aca="false">"⟨" &amp; TRUNC(B3,6) &amp; ", " &amp; TRUNC(C3, 6)  &amp; ", " &amp; TRUNC(D3, 6)&amp; "⟩"</f>
-        <v>⟨0.50613, 0.363651, 0.370022⟩</v>
-      </c>
-      <c r="C11" s="1" t="n">
+        <v>-0.068722</v>
+      </c>
+      <c r="E16" s="10" t="n">
+        <f aca="false">TRUNC(G2, 6)</f>
+        <v>0.000916</v>
+      </c>
+      <c r="F16" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="G16" s="11" t="n">
+        <v>1131</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="13" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="B17" s="9" t="str">
+        <f aca="false"> "&lt;" &amp; TRUNC(B3, 6) &amp;  ", " &amp; TRUNC(C3, 6) &amp;  ", " &amp; TRUNC(D3, 6) &amp; "&gt;"</f>
+        <v>&lt;0.411377, 0.410517, 0.410528&gt;</v>
+      </c>
+      <c r="C17" s="10" t="n">
         <f aca="false">TRUNC(E3, 6)</f>
-        <v>-0.068104</v>
-      </c>
-      <c r="D11" s="1" t="n">
+        <v>-0.069329</v>
+      </c>
+      <c r="D17" s="10" t="n">
         <f aca="false">TRUNC(F3, 6)</f>
-        <v>-0.067537</v>
-      </c>
-      <c r="E11" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="F11" s="1" t="n">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
-        <v>0.0625</v>
-      </c>
-      <c r="B12" s="2" t="str">
-        <f aca="false">"⟨" &amp; TRUNC(B4,6) &amp; ", " &amp; TRUNC(C4, 6)  &amp; ", " &amp; TRUNC(D4, 6)&amp; "⟩"</f>
-        <v>⟨0.42477, 0.40272, 0.402767⟩</v>
-      </c>
-      <c r="C12" s="1" t="n">
+        <v>-0.068683</v>
+      </c>
+      <c r="E17" s="10" t="n">
+        <f aca="false">TRUNC(G3, 6)</f>
+        <v>0.000645</v>
+      </c>
+      <c r="F17" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="G17" s="11" t="n">
+        <v>1326</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="14" t="n">
+        <v>0.1715</v>
+      </c>
+      <c r="B18" s="9" t="str">
+        <f aca="false"> "&lt;" &amp; TRUNC(B4, 6) &amp;  ", " &amp; TRUNC(C4, 6) &amp;  ", " &amp; TRUNC(D4, 6) &amp; "&gt;"</f>
+        <v>&lt;0.410272, 0.409919, 0.409923&gt;</v>
+      </c>
+      <c r="C18" s="10" t="n">
         <f aca="false">TRUNC(E4, 6)</f>
-        <v>-0.068899</v>
-      </c>
-      <c r="D12" s="1" t="n">
+        <v>-0.06894</v>
+      </c>
+      <c r="D18" s="10" t="n">
         <f aca="false">TRUNC(F4, 6)</f>
-        <v>-0.068457</v>
-      </c>
-      <c r="E12" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="F12" s="1" t="n">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
-        <v>0.03125</v>
-      </c>
-      <c r="B13" s="2" t="str">
-        <f aca="false">"⟨" &amp; TRUNC(B5,6) &amp; ", " &amp; TRUNC(C5, 6)  &amp; ", " &amp; TRUNC(D5, 6)&amp; "⟩"</f>
-        <v>⟨0.42408, 0.402286, 0.402334⟩</v>
-      </c>
-      <c r="C13" s="1" t="n">
+        <v>-0.068489</v>
+      </c>
+      <c r="E18" s="10" t="n">
+        <f aca="false">TRUNC(G4, 6)</f>
+        <v>0.00045</v>
+      </c>
+      <c r="F18" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="G18" s="11" t="n">
+        <v>1326</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="15" t="n">
+        <v>0.12005</v>
+      </c>
+      <c r="B19" s="9" t="str">
+        <f aca="false"> "&lt;" &amp; TRUNC(B5, 6) &amp;  ", " &amp; TRUNC(C5, 6) &amp;  ", " &amp; TRUNC(D5, 6) &amp; "&gt;"</f>
+        <v>&lt;0.40956, 0.40947, 0.409471&gt;</v>
+      </c>
+      <c r="C19" s="10" t="n">
         <f aca="false">TRUNC(E5, 6)</f>
-        <v>-0.068639</v>
-      </c>
-      <c r="D13" s="1" t="n">
+        <v>-0.068669</v>
+      </c>
+      <c r="D19" s="10" t="n">
         <f aca="false">TRUNC(F5, 6)</f>
-        <v>-0.068323</v>
-      </c>
-      <c r="E13" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="F13" s="1" t="n">
-        <v>96</v>
-      </c>
+        <v>-0.068354</v>
+      </c>
+      <c r="E19" s="10" t="n">
+        <f aca="false">TRUNC(G5, 6)</f>
+        <v>0.000314</v>
+      </c>
+      <c r="F19" s="16" t="n">
+        <v>40</v>
+      </c>
+      <c r="G19" s="16" t="n">
+        <v>1326</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="10" t="n">
+        <v>0.084035</v>
+      </c>
+      <c r="B20" s="9" t="str">
+        <f aca="false"> "&lt;" &amp; TRUNC(B6, 6) &amp;  ", " &amp; TRUNC(C6, 6) &amp;  ", " &amp; TRUNC(D6, 6) &amp; "&gt;"</f>
+        <v>&lt;0.409179, 0.409096, 0.409097&gt;</v>
+      </c>
+      <c r="C20" s="10" t="n">
+        <f aca="false">TRUNC(E6, 6)</f>
+        <v>-0.06848</v>
+      </c>
+      <c r="D20" s="10" t="n">
+        <f aca="false">TRUNC(F6, 6)</f>
+        <v>-0.06826</v>
+      </c>
+      <c r="E20" s="10" t="n">
+        <f aca="false">TRUNC(G6, 6)</f>
+        <v>0.000219</v>
+      </c>
+      <c r="F20" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="G20" s="11" t="n">
+        <v>1326</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="17" t="n">
+        <v>0.0588245</v>
+      </c>
+      <c r="B21" s="9" t="str">
+        <f aca="false"> "&lt;" &amp; TRUNC(B7, 6) &amp;  ", " &amp; TRUNC(C7, 6) &amp;  ", " &amp; TRUNC(D7, 6) &amp; "&gt;"</f>
+        <v>&lt;0.408913, 0.408835, 0.408836&gt;</v>
+      </c>
+      <c r="C21" s="10" t="n">
+        <f aca="false">TRUNC(E7, 6)</f>
+        <v>-0.068348</v>
+      </c>
+      <c r="D21" s="10" t="n">
+        <f aca="false">TRUNC(F7, 6)</f>
+        <v>-0.068194</v>
+      </c>
+      <c r="E21" s="10" t="n">
+        <f aca="false">TRUNC(G7, 6)</f>
+        <v>0.000153</v>
+      </c>
+      <c r="F21" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="G21" s="11" t="n">
+        <v>1326</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="18" t="n">
+        <v>0.04117715</v>
+      </c>
+      <c r="B22" s="9" t="str">
+        <f aca="false"> "&lt;" &amp; TRUNC(B8, 6) &amp;  ", " &amp; TRUNC(C8, 6) &amp;  ", " &amp; TRUNC(D8, 6) &amp; "&gt;"</f>
+        <v>&lt;0.408727, 0.408651, 0.408652&gt;</v>
+      </c>
+      <c r="C22" s="10" t="n">
+        <f aca="false">TRUNC(E8, 6)</f>
+        <v>-0.068256</v>
+      </c>
+      <c r="D22" s="10" t="n">
+        <f aca="false">TRUNC(F8, 6)</f>
+        <v>-0.068148</v>
+      </c>
+      <c r="E22" s="10" t="n">
+        <f aca="false">TRUNC(G8, 6)</f>
+        <v>0.000107</v>
+      </c>
+      <c r="F22" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="G22" s="11" t="n">
+        <v>1326</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="19" t="n">
+        <v>0.028824005</v>
+      </c>
+      <c r="B23" s="9" t="str">
+        <f aca="false"> "&lt;" &amp; TRUNC(B9, 6) &amp;  ", " &amp; TRUNC(C9, 6) &amp;  ", " &amp; TRUNC(D9, 6) &amp; "&gt;"</f>
+        <v>&lt;0.408596, 0.408523, 0.408524&gt;</v>
+      </c>
+      <c r="C23" s="10" t="n">
+        <f aca="false">TRUNC(E9, 6)</f>
+        <v>-0.068191</v>
+      </c>
+      <c r="D23" s="10" t="n">
+        <f aca="false">TRUNC(F9, 6)</f>
+        <v>-0.068116</v>
+      </c>
+      <c r="E23" s="10" t="n">
+        <f aca="false">TRUNC(G9, 6)</f>
+        <v>7.5E-005</v>
+      </c>
+      <c r="F23" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="G23" s="11" t="n">
+        <v>1326</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="20" t="n">
+        <v>0.0201768035</v>
+      </c>
+      <c r="B24" s="9" t="str">
+        <f aca="false"> "&lt;" &amp; TRUNC(B10, 6) &amp;  ", " &amp; TRUNC(C10, 6) &amp;  ", " &amp; TRUNC(D10, 6) &amp; "&gt;"</f>
+        <v>&lt;0.408505, 0.408434, 0.408435&gt;</v>
+      </c>
+      <c r="C24" s="10" t="n">
+        <f aca="false">TRUNC(E10, 6)</f>
+        <v>-0.068146</v>
+      </c>
+      <c r="D24" s="10" t="n">
+        <f aca="false">TRUNC(F10, 6)</f>
+        <v>-0.068093</v>
+      </c>
+      <c r="E24" s="10" t="n">
+        <f aca="false">TRUNC(G10, 6)</f>
+        <v>5.2E-005</v>
+      </c>
+      <c r="F24" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="G24" s="11" t="n">
+        <v>1326</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G31" s="21"/>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G32" s="21"/>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G33" s="21"/>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G34" s="21"/>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G35" s="21"/>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G36" s="21"/>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G37" s="21"/>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G38" s="21"/>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G39" s="21"/>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G40" s="21"/>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G41" s="21"/>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G42" s="21"/>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G43" s="21"/>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G44" s="21"/>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G45" s="21"/>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G46" s="21"/>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G47" s="21"/>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G48" s="21"/>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G49" s="21"/>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G50" s="21"/>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G51" s="21"/>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G52" s="21"/>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G53" s="21"/>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G54" s="21"/>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G55" s="21"/>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G56" s="21"/>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G57" s="21"/>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G58" s="21"/>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G59" s="21"/>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G60" s="21"/>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G61" s="21"/>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G62" s="21"/>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G63" s="21"/>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G64" s="21"/>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G65" s="21"/>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G66" s="21"/>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G67" s="21"/>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G68" s="21"/>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G69" s="21"/>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G70" s="21"/>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G71" s="21"/>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G72" s="21"/>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G73" s="21"/>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G74" s="21"/>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G75" s="21"/>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G76" s="21"/>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G77" s="21"/>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G78" s="21"/>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G79" s="21"/>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G80" s="21"/>
+    </row>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G81" s="21"/>
+    </row>
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G82" s="21"/>
+    </row>
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G83" s="21"/>
+    </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G84" s="21"/>
+    </row>
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G85" s="21"/>
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G86" s="21"/>
+    </row>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G87" s="21"/>
+    </row>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G88" s="21"/>
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G89" s="21"/>
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G90" s="21"/>
+    </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G91" s="21"/>
+    </row>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G92" s="21"/>
+    </row>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G93" s="21"/>
+    </row>
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G94" s="21"/>
+    </row>
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G95" s="21"/>
+    </row>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G96" s="21"/>
+    </row>
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G97" s="21"/>
+    </row>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G98" s="21"/>
+    </row>
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G99" s="21"/>
+    </row>
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G100" s="21"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/03-lab/output/penalty_method_custom.xlsx
+++ b/03-lab/output/penalty_method_custom.xlsx
@@ -141,7 +141,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -203,6 +203,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="173" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -356,7 +364,7 @@
   <dimension ref="A1:I100"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E32" activeCellId="0" sqref="E32"/>
+      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -835,26 +843,26 @@
       <c r="A19" s="15" t="n">
         <v>0.12005</v>
       </c>
-      <c r="B19" s="9" t="str">
+      <c r="B19" s="16" t="str">
         <f aca="false"> "&lt;" &amp; TRUNC(B5, 6) &amp;  ", " &amp; TRUNC(C5, 6) &amp;  ", " &amp; TRUNC(D5, 6) &amp; "&gt;"</f>
         <v>&lt;0.40956, 0.40947, 0.409471&gt;</v>
       </c>
-      <c r="C19" s="10" t="n">
+      <c r="C19" s="17" t="n">
         <f aca="false">TRUNC(E5, 6)</f>
         <v>-0.068669</v>
       </c>
-      <c r="D19" s="10" t="n">
+      <c r="D19" s="17" t="n">
         <f aca="false">TRUNC(F5, 6)</f>
         <v>-0.068354</v>
       </c>
-      <c r="E19" s="10" t="n">
+      <c r="E19" s="17" t="n">
         <f aca="false">TRUNC(G5, 6)</f>
         <v>0.000314</v>
       </c>
-      <c r="F19" s="16" t="n">
-        <v>40</v>
-      </c>
-      <c r="G19" s="16" t="n">
+      <c r="F19" s="18" t="n">
+        <v>40</v>
+      </c>
+      <c r="G19" s="18" t="n">
         <v>1326</v>
       </c>
       <c r="H19" s="3"/>
@@ -890,7 +898,7 @@
       <c r="I20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="17" t="n">
+      <c r="A21" s="19" t="n">
         <v>0.0588245</v>
       </c>
       <c r="B21" s="9" t="str">
@@ -919,7 +927,7 @@
       <c r="I21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="18" t="n">
+      <c r="A22" s="20" t="n">
         <v>0.04117715</v>
       </c>
       <c r="B22" s="9" t="str">
@@ -948,7 +956,7 @@
       <c r="I22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="19" t="n">
+      <c r="A23" s="21" t="n">
         <v>0.028824005</v>
       </c>
       <c r="B23" s="9" t="str">
@@ -977,7 +985,7 @@
       <c r="I23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="20" t="n">
+      <c r="A24" s="22" t="n">
         <v>0.0201768035</v>
       </c>
       <c r="B24" s="9" t="str">
@@ -1072,214 +1080,214 @@
       <c r="I30" s="3"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G31" s="21"/>
+      <c r="G31" s="23"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G32" s="21"/>
+      <c r="G32" s="23"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G33" s="21"/>
+      <c r="G33" s="23"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G34" s="21"/>
+      <c r="G34" s="23"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G35" s="21"/>
+      <c r="G35" s="23"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G36" s="21"/>
+      <c r="G36" s="23"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G37" s="21"/>
+      <c r="G37" s="23"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G38" s="21"/>
+      <c r="G38" s="23"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G39" s="21"/>
+      <c r="G39" s="23"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G40" s="21"/>
+      <c r="G40" s="23"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G41" s="21"/>
+      <c r="G41" s="23"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G42" s="21"/>
+      <c r="G42" s="23"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G43" s="21"/>
+      <c r="G43" s="23"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G44" s="21"/>
+      <c r="G44" s="23"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G45" s="21"/>
+      <c r="G45" s="23"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G46" s="21"/>
+      <c r="G46" s="23"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G47" s="21"/>
+      <c r="G47" s="23"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G48" s="21"/>
+      <c r="G48" s="23"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G49" s="21"/>
+      <c r="G49" s="23"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G50" s="21"/>
+      <c r="G50" s="23"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G51" s="21"/>
+      <c r="G51" s="23"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G52" s="21"/>
+      <c r="G52" s="23"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G53" s="21"/>
+      <c r="G53" s="23"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G54" s="21"/>
+      <c r="G54" s="23"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G55" s="21"/>
+      <c r="G55" s="23"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G56" s="21"/>
+      <c r="G56" s="23"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G57" s="21"/>
+      <c r="G57" s="23"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G58" s="21"/>
+      <c r="G58" s="23"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G59" s="21"/>
+      <c r="G59" s="23"/>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G60" s="21"/>
+      <c r="G60" s="23"/>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G61" s="21"/>
+      <c r="G61" s="23"/>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G62" s="21"/>
+      <c r="G62" s="23"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G63" s="21"/>
+      <c r="G63" s="23"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G64" s="21"/>
+      <c r="G64" s="23"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G65" s="21"/>
+      <c r="G65" s="23"/>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G66" s="21"/>
+      <c r="G66" s="23"/>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G67" s="21"/>
+      <c r="G67" s="23"/>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G68" s="21"/>
+      <c r="G68" s="23"/>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G69" s="21"/>
+      <c r="G69" s="23"/>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G70" s="21"/>
+      <c r="G70" s="23"/>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G71" s="21"/>
+      <c r="G71" s="23"/>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G72" s="21"/>
+      <c r="G72" s="23"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G73" s="21"/>
+      <c r="G73" s="23"/>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G74" s="21"/>
+      <c r="G74" s="23"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G75" s="21"/>
+      <c r="G75" s="23"/>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G76" s="21"/>
+      <c r="G76" s="23"/>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G77" s="21"/>
+      <c r="G77" s="23"/>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G78" s="21"/>
+      <c r="G78" s="23"/>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G79" s="21"/>
+      <c r="G79" s="23"/>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G80" s="21"/>
+      <c r="G80" s="23"/>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G81" s="21"/>
+      <c r="G81" s="23"/>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G82" s="21"/>
+      <c r="G82" s="23"/>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G83" s="21"/>
+      <c r="G83" s="23"/>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G84" s="21"/>
+      <c r="G84" s="23"/>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G85" s="21"/>
+      <c r="G85" s="23"/>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G86" s="21"/>
+      <c r="G86" s="23"/>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G87" s="21"/>
+      <c r="G87" s="23"/>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G88" s="21"/>
+      <c r="G88" s="23"/>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G89" s="21"/>
+      <c r="G89" s="23"/>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G90" s="21"/>
+      <c r="G90" s="23"/>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G91" s="21"/>
+      <c r="G91" s="23"/>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G92" s="21"/>
+      <c r="G92" s="23"/>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G93" s="21"/>
+      <c r="G93" s="23"/>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G94" s="21"/>
+      <c r="G94" s="23"/>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G95" s="21"/>
+      <c r="G95" s="23"/>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G96" s="21"/>
+      <c r="G96" s="23"/>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G97" s="21"/>
+      <c r="G97" s="23"/>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G98" s="21"/>
+      <c r="G98" s="23"/>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G99" s="21"/>
+      <c r="G99" s="23"/>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G100" s="21"/>
+      <c r="G100" s="23"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
